--- a/Visualization_MFG_sample.xlsx
+++ b/Visualization_MFG_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marst\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E28446-0969-454C-9082-AB142E00D8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1623BCA8-88AE-4879-80B2-0105A2D47001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -306,7 +306,146 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00_);\([$$-409]#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00_);\([$$-409]#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00_);\([$$-409]#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-409]ddmmmyyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -317,6 +456,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F5FCEB9-C3B4-409F-8472-5DBDF7291808}" name="Table1" displayName="Table1" ref="A1:AN697" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:AN697" xr:uid="{0F5FCEB9-C3B4-409F-8472-5DBDF7291808}"/>
+  <tableColumns count="40">
+    <tableColumn id="1" xr3:uid="{9ACC3D93-3E33-4164-8373-3FAFFE93B687}" name="ourid" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{C46DC377-0F82-4538-9E39-D4B341C0CDBD}" name="release_date" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{CCD8F3BA-21D9-40FA-886E-21E6C6E7102A}" name="grossboxoffice" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{452739C4-4F08-479C-BC69-457ECF88C744}" name="classgrossboxoffice" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{D5DAADDB-26DB-43C1-B1B1-6F06974A03B9}" name="specialeffects" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{6173C1EA-D5B2-471A-BCDD-ECDAC6BE2C96}" name="starvalue_director" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{F1455C57-137C-4C65-A93B-54FA3E6AE276}" name="starvalue_producer" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{0DC85262-7583-4976-BAFC-F1882BFD1F0B}" name="startvalue_stars" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{59B56841-0124-486A-882E-3DF05DC58769}" name="origscreenoplayes" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{5C90B79B-45C6-4EEB-8523-2C1375D777D7}" name="action" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{D8A5CF8D-4A06-492F-9F25-69AE5FC01B70}" name="adventure" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{B1081C06-561E-45C0-893E-F8788B693E1A}" name="animation" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{2C7733E7-24CD-47C5-B256-085CE22BC4B0}" name="biography" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{812ECC81-A8EE-4ADF-A561-A2CE9E5DBC21}" name="comedy" dataDxfId="27"/>
+    <tableColumn id="15" xr3:uid="{3E5674A0-ABC1-464B-96EB-F4672450DA42}" name="crime" dataDxfId="26"/>
+    <tableColumn id="16" xr3:uid="{9DA58F9D-4DDF-49CC-A545-B44698C37536}" name="documentary" dataDxfId="25"/>
+    <tableColumn id="17" xr3:uid="{A906DC58-DC2E-45E9-838A-57AA82B63DB0}" name="drama" dataDxfId="24"/>
+    <tableColumn id="18" xr3:uid="{3729EF47-7FBF-4703-9C34-604D2B143D30}" name="family" dataDxfId="23"/>
+    <tableColumn id="19" xr3:uid="{75538499-2E37-4E16-9769-F5B06E67D240}" name="fantasy" dataDxfId="22"/>
+    <tableColumn id="20" xr3:uid="{A7A79323-4A5B-44F3-A2F8-69A7ED99EE19}" name="history" dataDxfId="21"/>
+    <tableColumn id="21" xr3:uid="{AC08888E-306A-4BDC-BE1C-69C520554852}" name="horror" dataDxfId="20"/>
+    <tableColumn id="22" xr3:uid="{5D614B8D-2949-4CC7-A39F-A41B26ADCF73}" name="music" dataDxfId="19"/>
+    <tableColumn id="23" xr3:uid="{5B5F646A-7A3E-44AA-A630-615AF85AC62E}" name="musical" dataDxfId="18"/>
+    <tableColumn id="24" xr3:uid="{9C4CB654-0262-494D-AF71-DEEB453AE01C}" name="mystery" dataDxfId="17"/>
+    <tableColumn id="25" xr3:uid="{D4608213-C582-43BF-BC87-FAEC1901A2E4}" name="romance" dataDxfId="16"/>
+    <tableColumn id="26" xr3:uid="{E290C568-E5E4-442A-A422-42E08A37C670}" name="scifi" dataDxfId="15"/>
+    <tableColumn id="27" xr3:uid="{46A97AB7-F20D-4757-928A-9A344196899E}" name="sport" dataDxfId="14"/>
+    <tableColumn id="28" xr3:uid="{F464ACCE-AC74-4B99-B3F7-67773CB7FAF1}" name="thriller" dataDxfId="13"/>
+    <tableColumn id="29" xr3:uid="{9194E2F9-26D6-453F-A611-13961CEE9AD8}" name="war" dataDxfId="12"/>
+    <tableColumn id="30" xr3:uid="{8D178F14-D0AB-4B8A-A8A6-EC269521A7ED}" name="western" dataDxfId="11"/>
+    <tableColumn id="31" xr3:uid="{17DDEB04-D229-4B56-9F3D-E8C2F0165129}" name="othergenre" dataDxfId="10"/>
+    <tableColumn id="32" xr3:uid="{AA674195-1EB0-44DD-8EB3-FC17D026F0A7}" name="competition" dataDxfId="9"/>
+    <tableColumn id="33" xr3:uid="{EB7DD165-C44F-41C1-9501-DCC17D8A1E9D}" name="mpaa_rating" dataDxfId="8"/>
+    <tableColumn id="34" xr3:uid="{DDC7263D-2E75-4947-A1BD-4FF15A2F15C3}" name="maxscreens" dataDxfId="7"/>
+    <tableColumn id="35" xr3:uid="{07044E6A-B101-47C5-9AA2-AB3EBCAD4157}" name="user_rating" dataDxfId="6"/>
+    <tableColumn id="36" xr3:uid="{0125A501-C950-410A-8A48-9661D642C171}" name="opening___screens" dataDxfId="5"/>
+    <tableColumn id="37" xr3:uid="{8FCC0838-A117-4190-AA16-B62E8F14AF1D}" name="estmated_budget" dataDxfId="4"/>
+    <tableColumn id="38" xr3:uid="{8A2322CF-91CE-429E-A092-B6A0DE8C3152}" name="opening_weekend" dataDxfId="3"/>
+    <tableColumn id="39" xr3:uid="{00CA78A1-6F01-453D-9C26-6FAAE78255F7}" name="number_of_weeks" dataDxfId="2"/>
+    <tableColumn id="40" xr3:uid="{3E60779B-027C-47D5-BC58-3AE062B3C984}" name="movie_length" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -642,51 +830,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT697"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:AN697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" customWidth="1"/>
-    <col min="11" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" customWidth="1"/>
-    <col min="18" max="18" width="6" customWidth="1"/>
-    <col min="19" max="19" width="7" customWidth="1"/>
-    <col min="20" max="20" width="6.5703125" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" customWidth="1"/>
-    <col min="23" max="23" width="7.140625" customWidth="1"/>
-    <col min="24" max="24" width="7.42578125" customWidth="1"/>
-    <col min="25" max="25" width="8.28515625" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" customWidth="1"/>
-    <col min="27" max="27" width="5.28515625" customWidth="1"/>
-    <col min="28" max="28" width="6.28515625" customWidth="1"/>
-    <col min="29" max="29" width="4.140625" customWidth="1"/>
-    <col min="30" max="30" width="7.5703125" customWidth="1"/>
-    <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+    <col min="17" max="18" width="8.7109375" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" customWidth="1"/>
+    <col min="26" max="26" width="6.7109375" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" customWidth="1"/>
+    <col min="28" max="28" width="9.28515625" customWidth="1"/>
+    <col min="29" max="29" width="6.42578125" customWidth="1"/>
+    <col min="30" max="30" width="10.42578125" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" customWidth="1"/>
+    <col min="32" max="32" width="14" customWidth="1"/>
+    <col min="33" max="33" width="14.140625" customWidth="1"/>
+    <col min="34" max="34" width="13.5703125" customWidth="1"/>
+    <col min="35" max="35" width="13.140625" customWidth="1"/>
+    <col min="36" max="36" width="20.140625" customWidth="1"/>
+    <col min="37" max="37" width="18.85546875" customWidth="1"/>
+    <col min="38" max="39" width="19.7109375" customWidth="1"/>
+    <col min="40" max="40" width="15.42578125" customWidth="1"/>
     <col min="41" max="41" width="5.28515625" customWidth="1"/>
     <col min="42" max="42" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="10" bestFit="1" customWidth="1"/>
@@ -89218,6 +89405,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
